--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -279,7 +279,7 @@
       <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="12.38"/>
   </cols>
